--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,6 +94,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -141,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>jdbc- junit -git -estructura de datos-hibernate</t>
+  </si>
+  <si>
+    <t>evento teclas java</t>
+  </si>
+  <si>
+    <t>http://codejavu.blogspot.com/2014/03/ejemplo-eventos-del-teclado.html</t>
+  </si>
+  <si>
+    <t>Creacion web service</t>
+  </si>
+  <si>
+    <t>https://ingsistele.wordpress.com/2012/03/02/creacion-de-un-webservice-en-java/</t>
   </si>
 </sst>
 </file>
@@ -75,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -83,6 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -388,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,9 +431,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>https://ingsistele.wordpress.com/2012/03/02/creacion-de-un-webservice-en-java/</t>
+  </si>
+  <si>
+    <t>memoria</t>
+  </si>
+  <si>
+    <t>https://www.mnemotecnia.es/libros-recomendados</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,11 +453,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -49,6 +49,36 @@
   </si>
   <si>
     <t>https://www.mnemotecnia.es/libros-recomendados</t>
+  </si>
+  <si>
+    <t>http://mmc.geofisica.unam.mx/cursos/mcst-2007-II/Java/Java%20desde%20Cero.pdf</t>
+  </si>
+  <si>
+    <t>http://javapro.org/castellano/2017/07/31/convertir-string-pdf-java/</t>
+  </si>
+  <si>
+    <t>https://es.stackoverflow.com/questions/45846/c%C3%B3mo-separar-un-string-en-java-c%C3%B3mo-utilizar-split</t>
+  </si>
+  <si>
+    <t>https://desarrolloweb.com/articulos/631.php</t>
+  </si>
+  <si>
+    <t>https://rstopup.com/tomar-captura-de-pantalla-en-selenium-webdriver-en-el-navegador-chrome.html</t>
+  </si>
+  <si>
+    <t>http://www.rodrigoasensio.com/2009/03/como-crear-una-imagen-en-java-desde-una-url/</t>
+  </si>
+  <si>
+    <t>https://geekytheory.com/como-leer-un-fichero-en-java</t>
+  </si>
+  <si>
+    <t>https://geekytheory.com/tip-java-obtener-fecha-y-hora?utm_source=related_posts&amp;utm_campaign=related_posts</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Tutorials/Java/Spire.PDF-for-Java/Program-Guide/Conversion/Convert-PDF-to-Word-in-Java.html</t>
+  </si>
+  <si>
+    <t>https://geekytheory.com/como-crear-y-modificar-ficheros-con-java</t>
   </si>
 </sst>
 </file>
@@ -407,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,12 +491,72 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="B12" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId5" display="http://mmc.geofisica.unam.mx/cursos/mcst-2007-II/Java/Java desde Cero.pdf"/>
+    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B18" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B24" r:id="rId13"/>
+    <hyperlink ref="B25" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>https://geekytheory.com/como-crear-y-modificar-ficheros-con-java</t>
+  </si>
+  <si>
+    <t>Testing Selenium Español</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=loigGC5Iwrg&amp;list=PLWkxwEHYPPt1PU5TSvdvhMaGVcytMkjHW&amp;index=3</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,49 +502,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +571,7 @@
     <hyperlink ref="B23" r:id="rId12"/>
     <hyperlink ref="B24" r:id="rId13"/>
     <hyperlink ref="B25" r:id="rId14"/>
+    <hyperlink ref="B32" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Programación" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=loigGC5Iwrg&amp;list=PLWkxwEHYPPt1PU5TSvdvhMaGVcytMkjHW&amp;index=3</t>
+  </si>
+  <si>
+    <t>Java desde Cero</t>
+  </si>
+  <si>
+    <t>https://javadesdecero.es/</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +559,14 @@
       </c>
       <c r="B32" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -572,6 +586,7 @@
     <hyperlink ref="B24" r:id="rId13"/>
     <hyperlink ref="B25" r:id="rId14"/>
     <hyperlink ref="B32" r:id="rId15"/>
+    <hyperlink ref="B34" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paginas_Interesantes.xlsx
+++ b/Paginas_Interesantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>https://www.youtube.com/channel/UCQufRmIMRTLdRxTsXCh4-5w</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>https://javadesdecero.es/</t>
+  </si>
+  <si>
+    <t>HERENCIA</t>
+  </si>
+  <si>
+    <t>https://javadesdecero.es/avanzado/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocer cotraseña </t>
+  </si>
+  <si>
+    <t>https://www.adslzone.net/2016/01/27/como-ver-las-claves-wi-fi-almacenadas-en-windows-10/</t>
+  </si>
+  <si>
+    <t>Herencia jabarroba</t>
+  </si>
+  <si>
+    <t>https://jarroba.com/herencia-en-la-programacion-orientada-a-objetos-ejemplo-en-java/</t>
   </si>
 </sst>
 </file>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +585,30 @@
       </c>
       <c r="B34" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +629,9 @@
     <hyperlink ref="B25" r:id="rId14"/>
     <hyperlink ref="B32" r:id="rId15"/>
     <hyperlink ref="B34" r:id="rId16"/>
+    <hyperlink ref="B37" r:id="rId17"/>
+    <hyperlink ref="B40" r:id="rId18"/>
+    <hyperlink ref="B41" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
